--- a/bpm-explorer/demo/template/物料采购计划模板.xlsx
+++ b/bpm-explorer/demo/template/物料采购计划模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\ideaWorkSpace\sinopec-bpm\bpm-explorer\demo\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F428A1B-1C3D-452B-9C2E-FE795E54D55B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC707A1-7030-4B2C-8192-C957957169DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>物料采购计划</t>
   </si>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>采购申请</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP物料编码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP物料描述</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -30800,26 +30808,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="50.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="48" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
-    <col min="11" max="11" width="35.77734375" customWidth="1"/>
+    <col min="4" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -30833,8 +30841,10 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -30846,8 +30856,10 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -30861,8 +30873,10 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -30878,30 +30892,36 @@
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B4:D4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A3:M3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bpm-explorer/demo/template/物料采购计划模板.xlsx
+++ b/bpm-explorer/demo/template/物料采购计划模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\ideaWorkSpace\sinopec-bpm\bpm-explorer\demo\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC707A1-7030-4B2C-8192-C957957169DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A68BDA-6617-4A14-889D-B413A7D4D38A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +139,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -221,7 +228,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,15 +239,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -253,6 +251,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -30811,7 +30821,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -30828,86 +30838,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="2" t="s">

--- a/bpm-explorer/demo/template/物料采购计划模板.xlsx
+++ b/bpm-explorer/demo/template/物料采购计划模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\ideaWorkSpace\sinopec-bpm\bpm-explorer\demo\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09F118C-C35E-4941-9CEF-90D9FEE88862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92542BBB-2B7A-45F4-83C0-6F3549D609B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>询价名称</t>
-  </si>
-  <si>
-    <t>采购申请</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>物料编码</t>
   </si>
@@ -37,12 +28,6 @@
     <t>物料描述</t>
   </si>
   <si>
-    <t>ERP物料编码</t>
-  </si>
-  <si>
-    <t>ERP物料描述</t>
-  </si>
-  <si>
     <t>单位</t>
   </si>
   <si>
@@ -53,12 +38,6 @@
   </si>
   <si>
     <t>预留单号</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>预留</t>
   </si>
   <si>
     <r>
@@ -95,75 +74,68 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求计划号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间计划员备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购申请号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>询价书名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应部计划岗位备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购订单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP订单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存凭证号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -213,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -221,60 +193,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,107 +559,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="A3:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="60" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" customWidth="1"/>
+    <col min="15" max="15" width="33.77734375" customWidth="1"/>
+    <col min="16" max="16" width="18.77734375" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="10.77734375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
+      <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>